--- a/Generation Consumption Log.xlsx
+++ b/Generation Consumption Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e8739e71b4f7304/Solar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5250" documentId="8_{D95C9A6F-1925-44B4-8401-B901C46E3F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E79AFF7-32DA-46D2-8671-3A709BBF3130}"/>
+  <xr:revisionPtr revIDLastSave="5417" documentId="8_{D95C9A6F-1925-44B4-8401-B901C46E3F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B09B170-AB51-4504-B18C-6D9CA0EC5BE4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{98A823B4-3E05-4FC8-AB72-AED80D5063B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{98A823B4-3E05-4FC8-AB72-AED80D5063B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="128">
   <si>
     <t>Month</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>30/06/2023 - 31/07/2023</t>
+  </si>
+  <si>
+    <t>August</t>
   </si>
 </sst>
 </file>
@@ -14699,8 +14702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16966CDD-4DDA-47A8-94AC-FF4ED9686921}">
   <dimension ref="B2:U1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B255" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E288" sqref="E288"/>
+    <sheetView topLeftCell="B282" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K298" sqref="K298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14714,8 +14717,8 @@
     <col min="10" max="11" width="19.08984375" customWidth="1"/>
     <col min="12" max="12" width="15.7265625" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" customWidth="1"/>
-    <col min="15" max="15" width="21.1796875" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" customWidth="1"/>
     <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="17" width="9.81640625" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.54296875" customWidth="1"/>
@@ -14861,14 +14864,14 @@
       </c>
       <c r="Q4" s="14">
         <f>SUM(I:I)</f>
-        <v>643.8142666</v>
+        <v>698.65834160000009</v>
       </c>
       <c r="S4" t="s">
         <v>96</v>
       </c>
       <c r="T4">
         <f>SUM(E:E)</f>
-        <v>2567.9999999999991</v>
+        <v>2744.6999999999994</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
@@ -14920,7 +14923,7 @@
       </c>
       <c r="Q5" s="14">
         <f>SUM(N:N)</f>
-        <v>1037.7900602639995</v>
+        <v>1094.5138490559996</v>
       </c>
       <c r="S5" t="s">
         <v>122</v>
@@ -14980,7 +14983,7 @@
       </c>
       <c r="Q6" s="14">
         <f>Q4+Q5</f>
-        <v>1681.6043268639996</v>
+        <v>1793.1721906559997</v>
       </c>
       <c r="U6" s="16"/>
     </row>
@@ -15034,7 +15037,7 @@
       </c>
       <c r="Q7" s="14">
         <f>12000-Q6</f>
-        <v>10318.395673136001</v>
+        <v>10206.827809344</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
@@ -25565,7 +25568,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="I242" s="14">
-        <f t="shared" ref="I242:I285" si="40">(F242-H242)*0.43355</f>
+        <f t="shared" ref="I242:I297" si="40">(F242-H242)*0.43355</f>
         <v>5.9829900000000018</v>
       </c>
       <c r="J242">
@@ -27522,15 +27525,15 @@
         <v>33</v>
       </c>
       <c r="L285">
-        <f t="shared" ref="L285" si="41">IF(J285&gt;K285,(J285-K285)*10.24/100,0)</f>
+        <f t="shared" ref="L285:L297" si="41">IF(J285&gt;K285,(J285-K285)*10.24/100,0)</f>
         <v>6.6560000000000006</v>
       </c>
       <c r="M285" s="14">
-        <f t="shared" ref="M285" si="42">L285*(0.43355-0.15542)</f>
+        <f t="shared" ref="M285:M297" si="42">L285*(0.43355-0.15542)</f>
         <v>1.85123328</v>
       </c>
       <c r="N285" s="14">
-        <f t="shared" ref="N285" si="43">M285+I285</f>
+        <f t="shared" ref="N285:N297" si="43">M285+I285</f>
         <v>5.4496982799999998</v>
       </c>
     </row>
@@ -27544,8 +27547,39 @@
       <c r="D286" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="E286">
+        <v>14.3</v>
+      </c>
+      <c r="F286">
+        <v>15.3</v>
+      </c>
+      <c r="G286" s="23">
+        <v>0</v>
+      </c>
+      <c r="H286" s="23">
+        <v>4.7</v>
+      </c>
+      <c r="I286" s="14">
+        <f t="shared" si="40"/>
+        <v>4.5956300000000008</v>
+      </c>
       <c r="J286">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K286">
+        <v>44</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M286" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="14">
+        <f t="shared" si="43"/>
+        <v>4.5956300000000008</v>
       </c>
     </row>
     <row r="287" spans="2:14" x14ac:dyDescent="0.35">
@@ -27558,6 +27592,40 @@
       <c r="D287" s="16" t="s">
         <v>72</v>
       </c>
+      <c r="E287">
+        <v>13.6</v>
+      </c>
+      <c r="F287">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G287" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H287" s="23">
+        <v>8.6</v>
+      </c>
+      <c r="I287" s="14">
+        <f t="shared" si="40"/>
+        <v>4.8991149999999992</v>
+      </c>
+      <c r="J287">
+        <v>22</v>
+      </c>
+      <c r="K287">
+        <v>35</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M287" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N287" s="14">
+        <f t="shared" si="43"/>
+        <v>4.8991149999999992</v>
+      </c>
     </row>
     <row r="288" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B288" s="16">
@@ -27569,8 +27637,42 @@
       <c r="D288" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E288">
+        <v>18.3</v>
+      </c>
+      <c r="F288">
+        <v>40.5</v>
+      </c>
+      <c r="G288" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="H288" s="23">
+        <v>31</v>
+      </c>
+      <c r="I288" s="14">
+        <f t="shared" si="40"/>
+        <v>4.1187249999999995</v>
+      </c>
+      <c r="J288">
+        <v>22</v>
+      </c>
+      <c r="K288">
+        <v>51</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M288" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N288" s="14">
+        <f t="shared" si="43"/>
+        <v>4.1187249999999995</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B289" s="16">
         <v>45133</v>
       </c>
@@ -27580,8 +27682,42 @@
       <c r="D289" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E289">
+        <v>16.7</v>
+      </c>
+      <c r="F289">
+        <v>14.9</v>
+      </c>
+      <c r="G289" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="H289" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="I289" s="14">
+        <f t="shared" si="40"/>
+        <v>4.6389849999999999</v>
+      </c>
+      <c r="J289">
+        <v>22</v>
+      </c>
+      <c r="K289">
+        <v>48</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M289" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="14">
+        <f t="shared" si="43"/>
+        <v>4.6389849999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B290" s="16">
         <v>45134</v>
       </c>
@@ -27591,8 +27727,42 @@
       <c r="D290" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E290">
+        <v>16.5</v>
+      </c>
+      <c r="F290">
+        <v>15.4</v>
+      </c>
+      <c r="G290" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="H290" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I290" s="14">
+        <f t="shared" si="40"/>
+        <v>4.6823399999999999</v>
+      </c>
+      <c r="J290">
+        <v>22</v>
+      </c>
+      <c r="K290">
+        <v>71</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M290" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N290" s="14">
+        <f t="shared" si="43"/>
+        <v>4.6823399999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B291" s="16">
         <v>45135</v>
       </c>
@@ -27602,8 +27772,42 @@
       <c r="D291" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E291">
+        <v>13.4</v>
+      </c>
+      <c r="F291">
+        <v>14.6</v>
+      </c>
+      <c r="G291" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H291" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="I291" s="14">
+        <f t="shared" si="40"/>
+        <v>5.5060849999999997</v>
+      </c>
+      <c r="J291">
+        <v>22</v>
+      </c>
+      <c r="K291">
+        <v>47</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M291" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N291" s="14">
+        <f t="shared" si="43"/>
+        <v>5.5060849999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B292" s="16">
         <v>45136</v>
       </c>
@@ -27613,8 +27817,42 @@
       <c r="D292" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E292">
+        <v>19.7</v>
+      </c>
+      <c r="F292">
+        <v>16.7</v>
+      </c>
+      <c r="G292" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="H292" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="I292" s="14">
+        <f t="shared" si="40"/>
+        <v>6.0697000000000001</v>
+      </c>
+      <c r="J292">
+        <v>22</v>
+      </c>
+      <c r="K292">
+        <v>70</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M292" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N292" s="14">
+        <f t="shared" si="43"/>
+        <v>6.0697000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B293" s="16">
         <v>45137</v>
       </c>
@@ -27624,24 +27862,528 @@
       <c r="D293" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C294" s="16"/>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C295" s="16"/>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C296" s="16"/>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C297" s="16"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C298" s="16"/>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C299" s="16"/>
+      <c r="E293">
+        <v>15</v>
+      </c>
+      <c r="F293">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G293" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H293" s="23">
+        <v>24.3</v>
+      </c>
+      <c r="I293" s="14">
+        <f t="shared" si="40"/>
+        <v>6.4598950000000004</v>
+      </c>
+      <c r="J293">
+        <v>22</v>
+      </c>
+      <c r="K293">
+        <v>40</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M293" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N293" s="14">
+        <f t="shared" si="43"/>
+        <v>6.4598950000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B294" s="16">
+        <v>45138</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D294" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E294">
+        <v>8.5</v>
+      </c>
+      <c r="F294">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G294" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H294" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="I294" s="14">
+        <f t="shared" si="40"/>
+        <v>2.7747199999999994</v>
+      </c>
+      <c r="J294">
+        <v>70</v>
+      </c>
+      <c r="K294">
+        <v>22</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="41"/>
+        <v>4.9151999999999996</v>
+      </c>
+      <c r="M294" s="14">
+        <f t="shared" si="42"/>
+        <v>1.3670645759999998</v>
+      </c>
+      <c r="N294" s="14">
+        <f t="shared" si="43"/>
+        <v>4.1417845759999992</v>
+      </c>
+    </row>
+    <row r="295" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B295" s="16">
+        <v>45139</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E295">
+        <v>10</v>
+      </c>
+      <c r="F295">
+        <v>14.8</v>
+      </c>
+      <c r="G295" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H295" s="23">
+        <v>7.6</v>
+      </c>
+      <c r="I295" s="14">
+        <f t="shared" si="40"/>
+        <v>3.1215600000000006</v>
+      </c>
+      <c r="J295">
+        <v>40</v>
+      </c>
+      <c r="K295">
+        <v>22</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="41"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="M295" s="14">
+        <f t="shared" si="42"/>
+        <v>0.51264921600000002</v>
+      </c>
+      <c r="N295" s="14">
+        <f t="shared" si="43"/>
+        <v>3.6342092160000004</v>
+      </c>
+    </row>
+    <row r="296" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B296" s="16">
+        <v>45140</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E296">
+        <v>13.3</v>
+      </c>
+      <c r="F296">
+        <v>15.1</v>
+      </c>
+      <c r="G296" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="H296" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I296" s="14">
+        <f t="shared" si="40"/>
+        <v>2.991495</v>
+      </c>
+      <c r="J296">
+        <v>40</v>
+      </c>
+      <c r="K296">
+        <v>55</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M296" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="14">
+        <f t="shared" si="43"/>
+        <v>2.991495</v>
+      </c>
+    </row>
+    <row r="297" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B297" s="16">
+        <v>45141</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D297" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E297">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F297">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G297" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="H297" s="23">
+        <v>27.8</v>
+      </c>
+      <c r="I297" s="14">
+        <f t="shared" si="40"/>
+        <v>4.9858249999999984</v>
+      </c>
+      <c r="J297">
+        <v>22</v>
+      </c>
+      <c r="K297">
+        <v>73</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M297" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="14">
+        <f t="shared" si="43"/>
+        <v>4.9858249999999984</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B298" s="16">
+        <v>45142</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B299" s="16">
+        <v>45143</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D299" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B300" s="16">
+        <v>45144</v>
+      </c>
+      <c r="C300" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D300" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="301" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B301" s="16">
+        <v>45145</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D301" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B302" s="16">
+        <v>45146</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B303" s="16">
+        <v>45147</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D303" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="304" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B304" s="16">
+        <v>45148</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D304" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B305" s="16">
+        <v>45149</v>
+      </c>
+      <c r="C305" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D305" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B306" s="16">
+        <v>45150</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D306" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B307" s="16">
+        <v>45151</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B308" s="16">
+        <v>45152</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B309" s="16">
+        <v>45153</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D309" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B310" s="16">
+        <v>45154</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B311" s="16">
+        <v>45155</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B312" s="16">
+        <v>45156</v>
+      </c>
+      <c r="C312" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D312" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B313" s="16">
+        <v>45157</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B314" s="16">
+        <v>45158</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B315" s="16">
+        <v>45159</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D315" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B316" s="16">
+        <v>45160</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B317" s="16">
+        <v>45161</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B318" s="16">
+        <v>45162</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D318" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B319" s="16">
+        <v>45163</v>
+      </c>
+      <c r="C319" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D319" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B320" s="16">
+        <v>45164</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D320" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B321" s="16">
+        <v>45165</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D321" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B322" s="16">
+        <v>45166</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D322" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B323" s="16">
+        <v>45167</v>
+      </c>
+      <c r="C323" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D323" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B324" s="16">
+        <v>45168</v>
+      </c>
+      <c r="C324" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D324" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B325" s="16">
+        <v>45169</v>
+      </c>
+      <c r="C325" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D325" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1048576" s="16"/>
@@ -27656,10 +28398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B13CCED-8880-4098-965C-0F73BE2F8576}">
-  <dimension ref="B1:T293"/>
+  <dimension ref="B1:T321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L288" sqref="L288"/>
+    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27669,7 +28411,7 @@
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" customWidth="1"/>
+    <col min="6" max="7" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.6328125" customWidth="1"/>
     <col min="10" max="10" width="30.08984375" customWidth="1"/>
@@ -44220,21 +44962,29 @@
         <f>IF(OR('Daily Data'!D286 = "Tuesday", 'Daily Data'!D286 = "Wednesday", 'Daily Data'!D286 = "Thursday", 'Daily Data'!D286 = "Friday"), "Weekday", 'Daily Data'!D286)</f>
         <v>Sunday</v>
       </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="18"/>
-      <c r="G282" s="44"/>
+      <c r="D282" s="18">
+        <v>83.33</v>
+      </c>
+      <c r="E282" s="18">
+        <v>82.3</v>
+      </c>
+      <c r="F282" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="G282" s="44">
+        <v>0.88466435185185188</v>
+      </c>
       <c r="H282" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.88466435185185188</v>
       </c>
       <c r="I282" s="29">
         <f>'Daily Data'!E286</f>
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J282" s="29">
         <f>'Daily Data'!J286</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K282" s="18">
         <v>82</v>
@@ -44249,15 +44999,15 @@
       </c>
       <c r="N282" s="26">
         <f t="shared" si="62"/>
-        <v>1.8944000000000001</v>
+        <v>2.1504000000000003</v>
       </c>
       <c r="O282" s="27">
         <f t="shared" si="63"/>
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P282" s="27">
         <f t="shared" si="64"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q282" s="28">
         <f t="shared" si="65"/>
@@ -44272,23 +45022,33 @@
         <f>IF(OR('Daily Data'!D287 = "Tuesday", 'Daily Data'!D287 = "Wednesday", 'Daily Data'!D287 = "Thursday", 'Daily Data'!D287 = "Friday"), "Weekday", 'Daily Data'!D287)</f>
         <v>Monday</v>
       </c>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
-      <c r="F283" s="18"/>
-      <c r="G283" s="44"/>
+      <c r="D283" s="18">
+        <v>50</v>
+      </c>
+      <c r="E283" s="18">
+        <v>77</v>
+      </c>
+      <c r="F283" s="18">
+        <v>11.9</v>
+      </c>
+      <c r="G283" s="44">
+        <v>0.88366898148148154</v>
+      </c>
       <c r="H283" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.88366898148148154</v>
       </c>
       <c r="I283" s="29">
         <f>'Daily Data'!E287</f>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="J283" s="29">
         <f>'Daily Data'!J287</f>
-        <v>0</v>
-      </c>
-      <c r="K283" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K283" s="18">
+        <v>73</v>
+      </c>
       <c r="L283" s="35">
         <f>IF('Daily Data'!G287&lt;0.25, 0, 'Daily Data'!G287)</f>
         <v>0</v>
@@ -44299,19 +45059,19 @@
       </c>
       <c r="N283" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2.6112000000000002</v>
       </c>
       <c r="O283" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="P283" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="Q283" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.68428800000000001</v>
       </c>
     </row>
     <row r="284" spans="2:17" x14ac:dyDescent="0.35">
@@ -44322,46 +45082,56 @@
         <f>IF(OR('Daily Data'!D288 = "Tuesday", 'Daily Data'!D288 = "Wednesday", 'Daily Data'!D288 = "Thursday", 'Daily Data'!D288 = "Friday"), "Weekday", 'Daily Data'!D288)</f>
         <v>Weekday</v>
       </c>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
-      <c r="F284" s="18"/>
-      <c r="G284" s="44"/>
+      <c r="D284" s="18">
+        <v>33.33</v>
+      </c>
+      <c r="E284" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F284" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="G284" s="44">
+        <v>0.88265046296296301</v>
+      </c>
       <c r="H284" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.88265046296296301</v>
       </c>
       <c r="I284" s="29">
         <f>'Daily Data'!E288</f>
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J284" s="29">
         <f>'Daily Data'!J288</f>
-        <v>0</v>
-      </c>
-      <c r="K284" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K284" s="18">
+        <v>100</v>
+      </c>
       <c r="L284" s="35">
         <f>IF('Daily Data'!G288&lt;0.25, 0, 'Daily Data'!G288)</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M284" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>35.15625</v>
       </c>
       <c r="N284" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="O284" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P284" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q284" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.36000000000000004</v>
       </c>
     </row>
     <row r="285" spans="2:17" x14ac:dyDescent="0.35">
@@ -44372,46 +45142,56 @@
         <f>IF(OR('Daily Data'!D289 = "Tuesday", 'Daily Data'!D289 = "Wednesday", 'Daily Data'!D289 = "Thursday", 'Daily Data'!D289 = "Friday"), "Weekday", 'Daily Data'!D289)</f>
         <v>Weekday</v>
       </c>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
-      <c r="F285" s="18"/>
-      <c r="G285" s="44"/>
+      <c r="D285" s="18">
+        <v>8.33</v>
+      </c>
+      <c r="E285" s="18">
+        <v>42.5</v>
+      </c>
+      <c r="F285" s="18">
+        <v>17.5</v>
+      </c>
+      <c r="G285" s="44">
+        <v>0.88160879629629629</v>
+      </c>
       <c r="H285" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.88160879629629629</v>
       </c>
       <c r="I285" s="29">
         <f>'Daily Data'!E289</f>
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="J285" s="29">
         <f>'Daily Data'!J289</f>
-        <v>0</v>
-      </c>
-      <c r="K285" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K285" s="18">
+        <v>100</v>
+      </c>
       <c r="L285" s="35">
         <f>IF('Daily Data'!G289&lt;0.25, 0, 'Daily Data'!G289)</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M285" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="N285" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="O285" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P285" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q285" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.32000000000000006</v>
       </c>
     </row>
     <row r="286" spans="2:17" x14ac:dyDescent="0.35">
@@ -44422,46 +45202,56 @@
         <f>IF(OR('Daily Data'!D290 = "Tuesday", 'Daily Data'!D290 = "Wednesday", 'Daily Data'!D290 = "Thursday", 'Daily Data'!D290 = "Friday"), "Weekday", 'Daily Data'!D290)</f>
         <v>Weekday</v>
       </c>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="18"/>
-      <c r="G286" s="44"/>
+      <c r="D286" s="18">
+        <v>8.33</v>
+      </c>
+      <c r="E286" s="18">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F286" s="18">
+        <v>10</v>
+      </c>
+      <c r="G286" s="44">
+        <v>0.88053240740740746</v>
+      </c>
       <c r="H286" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.88053240740740746</v>
       </c>
       <c r="I286" s="29">
         <f>'Daily Data'!E290</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="J286" s="29">
         <f>'Daily Data'!J290</f>
-        <v>0</v>
-      </c>
-      <c r="K286" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K286" s="18">
+        <v>100</v>
+      </c>
       <c r="L286" s="35">
         <f>IF('Daily Data'!G290&lt;0.25, 0, 'Daily Data'!G290)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M286" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3.90625</v>
       </c>
       <c r="N286" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.1936</v>
       </c>
       <c r="O286" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>118.09375</v>
       </c>
       <c r="P286" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>18.09375</v>
       </c>
       <c r="Q286" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="287" spans="2:17" x14ac:dyDescent="0.35">
@@ -44472,23 +45262,33 @@
         <f>IF(OR('Daily Data'!D291 = "Tuesday", 'Daily Data'!D291 = "Wednesday", 'Daily Data'!D291 = "Thursday", 'Daily Data'!D291 = "Friday"), "Weekday", 'Daily Data'!D291)</f>
         <v>Weekday</v>
       </c>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18"/>
-      <c r="F287" s="18"/>
-      <c r="G287" s="44"/>
+      <c r="D287" s="18">
+        <v>4.17</v>
+      </c>
+      <c r="E287" s="18">
+        <v>77</v>
+      </c>
+      <c r="F287" s="18">
+        <v>12.8</v>
+      </c>
+      <c r="G287" s="44">
+        <v>0.87943287037037043</v>
+      </c>
       <c r="H287" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87943287037037043</v>
       </c>
       <c r="I287" s="29">
         <f>'Daily Data'!E291</f>
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="J287" s="29">
         <f>'Daily Data'!J291</f>
-        <v>0</v>
-      </c>
-      <c r="K287" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K287" s="18">
+        <v>94</v>
+      </c>
       <c r="L287" s="35">
         <f>IF('Daily Data'!G291&lt;0.25, 0, 'Daily Data'!G291)</f>
         <v>0</v>
@@ -44499,19 +45299,19 @@
       </c>
       <c r="N287" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>3.6864000000000003</v>
       </c>
       <c r="O287" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>127.99999999999997</v>
       </c>
       <c r="P287" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="Q287" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.152064</v>
       </c>
     </row>
     <row r="288" spans="2:17" x14ac:dyDescent="0.35">
@@ -44522,46 +45322,56 @@
         <f>IF(OR('Daily Data'!D292 = "Tuesday", 'Daily Data'!D292 = "Wednesday", 'Daily Data'!D292 = "Thursday", 'Daily Data'!D292 = "Friday"), "Weekday", 'Daily Data'!D292)</f>
         <v>Saturday</v>
       </c>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
-      <c r="G288" s="44"/>
+      <c r="D288" s="18">
+        <v>4.17</v>
+      </c>
+      <c r="E288" s="18">
+        <v>59.6</v>
+      </c>
+      <c r="F288" s="18">
+        <v>19.2</v>
+      </c>
+      <c r="G288" s="44">
+        <v>0.87832175925925926</v>
+      </c>
       <c r="H288" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87832175925925926</v>
       </c>
       <c r="I288" s="29">
         <f>'Daily Data'!E292</f>
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="J288" s="29">
         <f>'Daily Data'!J292</f>
-        <v>0</v>
-      </c>
-      <c r="K288" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K288" s="18">
+        <v>100</v>
+      </c>
       <c r="L288" s="35">
         <f>IF('Daily Data'!G292&lt;0.25, 0, 'Daily Data'!G292)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M288" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3.90625</v>
       </c>
       <c r="N288" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.1936</v>
       </c>
       <c r="O288" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>118.09375</v>
       </c>
       <c r="P288" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>18.09375</v>
       </c>
       <c r="Q288" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.35">
@@ -44572,23 +45382,33 @@
         <f>IF(OR('Daily Data'!D293 = "Tuesday", 'Daily Data'!D293 = "Wednesday", 'Daily Data'!D293 = "Thursday", 'Daily Data'!D293 = "Friday"), "Weekday", 'Daily Data'!D293)</f>
         <v>Sunday</v>
       </c>
-      <c r="D289" s="18"/>
-      <c r="E289" s="18"/>
-      <c r="F289" s="18"/>
-      <c r="G289" s="44"/>
+      <c r="D289" s="18">
+        <v>37.5</v>
+      </c>
+      <c r="E289" s="18">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F289" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="G289" s="44">
+        <v>0.87717592592592597</v>
+      </c>
       <c r="H289" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87717592592592597</v>
       </c>
       <c r="I289" s="29">
         <f>'Daily Data'!E293</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J289" s="29">
         <f>'Daily Data'!J293</f>
-        <v>0</v>
-      </c>
-      <c r="K289" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K289" s="18">
+        <v>77</v>
+      </c>
       <c r="L289" s="35">
         <f>IF('Daily Data'!G293&lt;0.25, 0, 'Daily Data'!G293)</f>
         <v>0</v>
@@ -44599,46 +45419,56 @@
       </c>
       <c r="N289" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2.8160000000000003</v>
       </c>
       <c r="O289" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="P289" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="Q289" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.5829120000000001</v>
       </c>
     </row>
     <row r="290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B290" s="24">
         <v>45138</v>
       </c>
-      <c r="C290" s="18">
+      <c r="C290" s="18" t="str">
         <f>IF(OR('Daily Data'!D294 = "Tuesday", 'Daily Data'!D294 = "Wednesday", 'Daily Data'!D294 = "Thursday", 'Daily Data'!D294 = "Friday"), "Weekday", 'Daily Data'!D294)</f>
-        <v>0</v>
-      </c>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="18"/>
-      <c r="G290" s="44"/>
+        <v>Monday</v>
+      </c>
+      <c r="D290" s="18">
+        <v>70.83</v>
+      </c>
+      <c r="E290" s="18">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="F290" s="18">
+        <v>5</v>
+      </c>
+      <c r="G290" s="44">
+        <v>0.87600694444444438</v>
+      </c>
       <c r="H290" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87600694444444438</v>
       </c>
       <c r="I290" s="29">
         <f>'Daily Data'!E294</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J290" s="29">
         <f>'Daily Data'!J294</f>
-        <v>0</v>
-      </c>
-      <c r="K290" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="K290" s="18">
+        <v>72</v>
+      </c>
       <c r="L290" s="35">
         <f>IF('Daily Data'!G294&lt;0.25, 0, 'Daily Data'!G294)</f>
         <v>0</v>
@@ -44649,46 +45479,56 @@
       </c>
       <c r="N290" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.1024</v>
       </c>
       <c r="O290" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P290" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q290" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.70963199999999993</v>
       </c>
     </row>
     <row r="291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B291" s="24">
         <v>45139</v>
       </c>
-      <c r="C291" s="18">
+      <c r="C291" s="18" t="str">
         <f>IF(OR('Daily Data'!D295 = "Tuesday", 'Daily Data'!D295 = "Wednesday", 'Daily Data'!D295 = "Thursday", 'Daily Data'!D295 = "Friday"), "Weekday", 'Daily Data'!D295)</f>
-        <v>0</v>
-      </c>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="18"/>
-      <c r="G291" s="44"/>
+        <v>Weekday</v>
+      </c>
+      <c r="D291" s="18">
+        <v>0</v>
+      </c>
+      <c r="E291" s="18">
+        <v>72.7</v>
+      </c>
+      <c r="F291" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="G291" s="44">
+        <v>0.87481481481481482</v>
+      </c>
       <c r="H291" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87481481481481482</v>
       </c>
       <c r="I291" s="29">
         <f>'Daily Data'!E295</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J291" s="29">
         <f>'Daily Data'!J295</f>
-        <v>0</v>
-      </c>
-      <c r="K291" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="K291" s="18">
+        <v>58</v>
+      </c>
       <c r="L291" s="35">
         <f>IF('Daily Data'!G295&lt;0.25, 0, 'Daily Data'!G295)</f>
         <v>0</v>
@@ -44699,118 +45539,1538 @@
       </c>
       <c r="N291" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.92160000000000009</v>
       </c>
       <c r="O291" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="P291" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="Q291" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>1.0644480000000001</v>
       </c>
     </row>
     <row r="292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B292" s="24">
         <v>45140</v>
       </c>
-      <c r="C292" s="18">
+      <c r="C292" s="18" t="str">
         <f>IF(OR('Daily Data'!D296 = "Tuesday", 'Daily Data'!D296 = "Wednesday", 'Daily Data'!D296 = "Thursday", 'Daily Data'!D296 = "Friday"), "Weekday", 'Daily Data'!D296)</f>
-        <v>0</v>
-      </c>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="18"/>
-      <c r="G292" s="44"/>
+        <v>Weekday</v>
+      </c>
+      <c r="D292" s="18">
+        <v>62.5</v>
+      </c>
+      <c r="E292" s="18">
+        <v>75.7</v>
+      </c>
+      <c r="F292" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="G292" s="44">
+        <v>0.87361111111111101</v>
+      </c>
       <c r="H292" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87361111111111101</v>
       </c>
       <c r="I292" s="29">
         <f>'Daily Data'!E296</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="J292" s="29">
         <f>'Daily Data'!J296</f>
-        <v>0</v>
-      </c>
-      <c r="K292" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="K292" s="18">
+        <v>100</v>
+      </c>
       <c r="L292" s="35">
         <f>IF('Daily Data'!G296&lt;0.25, 0, 'Daily Data'!G296)</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M292" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>20.5078125</v>
       </c>
       <c r="N292" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="O292" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>119.49218750000001</v>
       </c>
       <c r="P292" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>19.4921875</v>
       </c>
       <c r="Q292" s="28">
         <f t="shared" si="65"/>
-        <v>2.5343999999999998</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
     <row r="293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B293" s="24">
         <v>45141</v>
       </c>
-      <c r="C293" s="18">
+      <c r="C293" s="18" t="str">
         <f>IF(OR('Daily Data'!D297 = "Tuesday", 'Daily Data'!D297 = "Wednesday", 'Daily Data'!D297 = "Thursday", 'Daily Data'!D297 = "Friday"), "Weekday", 'Daily Data'!D297)</f>
-        <v>0</v>
-      </c>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
-      <c r="F293" s="18"/>
-      <c r="G293" s="44"/>
+        <v>Weekday</v>
+      </c>
+      <c r="D293" s="18">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="E293" s="18">
+        <v>59.4</v>
+      </c>
+      <c r="F293" s="18">
+        <v>13</v>
+      </c>
+      <c r="G293" s="44">
+        <v>0.87237268518518529</v>
+      </c>
       <c r="H293" s="43">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.87237268518518529</v>
       </c>
       <c r="I293" s="29">
         <f>'Daily Data'!E297</f>
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J293" s="29">
         <f>'Daily Data'!J297</f>
-        <v>0</v>
-      </c>
-      <c r="K293" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K293" s="18">
+        <v>100</v>
+      </c>
       <c r="L293" s="35">
         <f>IF('Daily Data'!G297&lt;0.25, 0, 'Daily Data'!G297)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M293" s="10">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>6.8359375</v>
       </c>
       <c r="N293" s="26">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.3436000000000003</v>
       </c>
       <c r="O293" s="27">
         <f t="shared" si="63"/>
-        <v>200</v>
+        <v>115.1640625</v>
       </c>
       <c r="P293" s="27">
         <f t="shared" si="64"/>
-        <v>100</v>
+        <v>15.1640625</v>
       </c>
       <c r="Q293" s="28">
         <f t="shared" si="65"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B294" s="24">
+        <v>45142</v>
+      </c>
+      <c r="C294" s="18" t="str">
+        <f>IF(OR('Daily Data'!D298 = "Tuesday", 'Daily Data'!D298 = "Wednesday", 'Daily Data'!D298 = "Thursday", 'Daily Data'!D298 = "Friday"), "Weekday", 'Daily Data'!D298)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D294" s="18"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="44"/>
+      <c r="H294" s="43">
+        <f t="shared" ref="H294:H321" si="66">G294</f>
+        <v>0</v>
+      </c>
+      <c r="I294" s="29">
+        <f>'Daily Data'!E298</f>
+        <v>0</v>
+      </c>
+      <c r="J294" s="29">
+        <f>'Daily Data'!J298</f>
+        <v>0</v>
+      </c>
+      <c r="K294" s="18"/>
+      <c r="L294" s="35">
+        <f>IF('Daily Data'!G298&lt;0.25, 0, 'Daily Data'!G298)</f>
+        <v>0</v>
+      </c>
+      <c r="M294" s="10">
+        <f t="shared" ref="M294:M321" si="67">L294*100/10.24</f>
+        <v>0</v>
+      </c>
+      <c r="N294" s="26">
+        <f t="shared" ref="N294:N321" si="68">IF(K294=100, (100-P294)*5.12/100, 5.12*0.01*(100-P294))</f>
+        <v>0</v>
+      </c>
+      <c r="O294" s="27">
+        <f t="shared" ref="O294:O321" si="69">100*(10.24-N294)/5.12</f>
+        <v>200</v>
+      </c>
+      <c r="P294" s="27">
+        <f t="shared" ref="P294:P321" si="70">IF(K294=100,IF((J294-M294)&lt;0, 0, J294-M294),IF(K294&lt;23,100,IF(((100-K294)+J294)&gt;100,100,(100-K294)+J294)))</f>
+        <v>100</v>
+      </c>
+      <c r="Q294" s="28">
+        <f t="shared" ref="Q294:Q321" si="71">IF(AND(M294=0,  J294&lt;98),  0.011*(100-K294)*5.12*0.45, L294*0.1)</f>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B295" s="24">
+        <v>45143</v>
+      </c>
+      <c r="C295" s="18" t="str">
+        <f>IF(OR('Daily Data'!D299 = "Tuesday", 'Daily Data'!D299 = "Wednesday", 'Daily Data'!D299 = "Thursday", 'Daily Data'!D299 = "Friday"), "Weekday", 'Daily Data'!D299)</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="44"/>
+      <c r="H295" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I295" s="29">
+        <f>'Daily Data'!E299</f>
+        <v>0</v>
+      </c>
+      <c r="J295" s="29">
+        <f>'Daily Data'!J299</f>
+        <v>0</v>
+      </c>
+      <c r="K295" s="18"/>
+      <c r="L295" s="35">
+        <f>IF('Daily Data'!G299&lt;0.25, 0, 'Daily Data'!G299)</f>
+        <v>0</v>
+      </c>
+      <c r="M295" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O295" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P295" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q295" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B296" s="24">
+        <v>45144</v>
+      </c>
+      <c r="C296" s="18" t="str">
+        <f>IF(OR('Daily Data'!D300 = "Tuesday", 'Daily Data'!D300 = "Wednesday", 'Daily Data'!D300 = "Thursday", 'Daily Data'!D300 = "Friday"), "Weekday", 'Daily Data'!D300)</f>
+        <v>Sunday</v>
+      </c>
+      <c r="D296" s="18"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I296" s="29">
+        <f>'Daily Data'!E300</f>
+        <v>0</v>
+      </c>
+      <c r="J296" s="29">
+        <f>'Daily Data'!J300</f>
+        <v>0</v>
+      </c>
+      <c r="K296" s="18"/>
+      <c r="L296" s="35">
+        <f>IF('Daily Data'!G300&lt;0.25, 0, 'Daily Data'!G300)</f>
+        <v>0</v>
+      </c>
+      <c r="M296" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O296" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P296" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q296" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B297" s="24">
+        <v>45145</v>
+      </c>
+      <c r="C297" s="18" t="str">
+        <f>IF(OR('Daily Data'!D301 = "Tuesday", 'Daily Data'!D301 = "Wednesday", 'Daily Data'!D301 = "Thursday", 'Daily Data'!D301 = "Friday"), "Weekday", 'Daily Data'!D301)</f>
+        <v>Monday</v>
+      </c>
+      <c r="D297" s="18"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="44"/>
+      <c r="H297" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I297" s="29">
+        <f>'Daily Data'!E301</f>
+        <v>0</v>
+      </c>
+      <c r="J297" s="29">
+        <f>'Daily Data'!J301</f>
+        <v>0</v>
+      </c>
+      <c r="K297" s="18"/>
+      <c r="L297" s="35">
+        <f>IF('Daily Data'!G301&lt;0.25, 0, 'Daily Data'!G301)</f>
+        <v>0</v>
+      </c>
+      <c r="M297" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O297" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P297" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q297" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B298" s="24">
+        <v>45146</v>
+      </c>
+      <c r="C298" s="18" t="str">
+        <f>IF(OR('Daily Data'!D302 = "Tuesday", 'Daily Data'!D302 = "Wednesday", 'Daily Data'!D302 = "Thursday", 'Daily Data'!D302 = "Friday"), "Weekday", 'Daily Data'!D302)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D298" s="18"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="44"/>
+      <c r="H298" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I298" s="29">
+        <f>'Daily Data'!E302</f>
+        <v>0</v>
+      </c>
+      <c r="J298" s="29">
+        <f>'Daily Data'!J302</f>
+        <v>0</v>
+      </c>
+      <c r="K298" s="18"/>
+      <c r="L298" s="35">
+        <f>IF('Daily Data'!G302&lt;0.25, 0, 'Daily Data'!G302)</f>
+        <v>0</v>
+      </c>
+      <c r="M298" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O298" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P298" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q298" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B299" s="24">
+        <v>45147</v>
+      </c>
+      <c r="C299" s="18" t="str">
+        <f>IF(OR('Daily Data'!D303 = "Tuesday", 'Daily Data'!D303 = "Wednesday", 'Daily Data'!D303 = "Thursday", 'Daily Data'!D303 = "Friday"), "Weekday", 'Daily Data'!D303)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D299" s="18"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="44"/>
+      <c r="H299" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I299" s="29">
+        <f>'Daily Data'!E303</f>
+        <v>0</v>
+      </c>
+      <c r="J299" s="29">
+        <f>'Daily Data'!J303</f>
+        <v>0</v>
+      </c>
+      <c r="K299" s="18"/>
+      <c r="L299" s="35">
+        <f>IF('Daily Data'!G303&lt;0.25, 0, 'Daily Data'!G303)</f>
+        <v>0</v>
+      </c>
+      <c r="M299" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N299" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O299" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P299" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q299" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B300" s="24">
+        <v>45148</v>
+      </c>
+      <c r="C300" s="18" t="str">
+        <f>IF(OR('Daily Data'!D304 = "Tuesday", 'Daily Data'!D304 = "Wednesday", 'Daily Data'!D304 = "Thursday", 'Daily Data'!D304 = "Friday"), "Weekday", 'Daily Data'!D304)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D300" s="18"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="44"/>
+      <c r="H300" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I300" s="29">
+        <f>'Daily Data'!E304</f>
+        <v>0</v>
+      </c>
+      <c r="J300" s="29">
+        <f>'Daily Data'!J304</f>
+        <v>0</v>
+      </c>
+      <c r="K300" s="18"/>
+      <c r="L300" s="35">
+        <f>IF('Daily Data'!G304&lt;0.25, 0, 'Daily Data'!G304)</f>
+        <v>0</v>
+      </c>
+      <c r="M300" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N300" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O300" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P300" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q300" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B301" s="24">
+        <v>45149</v>
+      </c>
+      <c r="C301" s="18" t="str">
+        <f>IF(OR('Daily Data'!D305 = "Tuesday", 'Daily Data'!D305 = "Wednesday", 'Daily Data'!D305 = "Thursday", 'Daily Data'!D305 = "Friday"), "Weekday", 'Daily Data'!D305)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D301" s="18"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="44"/>
+      <c r="H301" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I301" s="29">
+        <f>'Daily Data'!E305</f>
+        <v>0</v>
+      </c>
+      <c r="J301" s="29">
+        <f>'Daily Data'!J305</f>
+        <v>0</v>
+      </c>
+      <c r="K301" s="18"/>
+      <c r="L301" s="35">
+        <f>IF('Daily Data'!G305&lt;0.25, 0, 'Daily Data'!G305)</f>
+        <v>0</v>
+      </c>
+      <c r="M301" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N301" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O301" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P301" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q301" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B302" s="24">
+        <v>45150</v>
+      </c>
+      <c r="C302" s="18" t="str">
+        <f>IF(OR('Daily Data'!D306 = "Tuesday", 'Daily Data'!D306 = "Wednesday", 'Daily Data'!D306 = "Thursday", 'Daily Data'!D306 = "Friday"), "Weekday", 'Daily Data'!D306)</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D302" s="18"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="44"/>
+      <c r="H302" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I302" s="29">
+        <f>'Daily Data'!E306</f>
+        <v>0</v>
+      </c>
+      <c r="J302" s="29">
+        <f>'Daily Data'!J306</f>
+        <v>0</v>
+      </c>
+      <c r="K302" s="18"/>
+      <c r="L302" s="35">
+        <f>IF('Daily Data'!G306&lt;0.25, 0, 'Daily Data'!G306)</f>
+        <v>0</v>
+      </c>
+      <c r="M302" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N302" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O302" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P302" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q302" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B303" s="24">
+        <v>45151</v>
+      </c>
+      <c r="C303" s="18" t="str">
+        <f>IF(OR('Daily Data'!D307 = "Tuesday", 'Daily Data'!D307 = "Wednesday", 'Daily Data'!D307 = "Thursday", 'Daily Data'!D307 = "Friday"), "Weekday", 'Daily Data'!D307)</f>
+        <v>Sunday</v>
+      </c>
+      <c r="D303" s="18"/>
+      <c r="E303" s="18"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="44"/>
+      <c r="H303" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I303" s="29">
+        <f>'Daily Data'!E307</f>
+        <v>0</v>
+      </c>
+      <c r="J303" s="29">
+        <f>'Daily Data'!J307</f>
+        <v>0</v>
+      </c>
+      <c r="K303" s="18"/>
+      <c r="L303" s="35">
+        <f>IF('Daily Data'!G307&lt;0.25, 0, 'Daily Data'!G307)</f>
+        <v>0</v>
+      </c>
+      <c r="M303" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N303" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O303" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P303" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q303" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B304" s="24">
+        <v>45152</v>
+      </c>
+      <c r="C304" s="18" t="str">
+        <f>IF(OR('Daily Data'!D308 = "Tuesday", 'Daily Data'!D308 = "Wednesday", 'Daily Data'!D308 = "Thursday", 'Daily Data'!D308 = "Friday"), "Weekday", 'Daily Data'!D308)</f>
+        <v>Monday</v>
+      </c>
+      <c r="D304" s="18"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="44"/>
+      <c r="H304" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I304" s="29">
+        <f>'Daily Data'!E308</f>
+        <v>0</v>
+      </c>
+      <c r="J304" s="29">
+        <f>'Daily Data'!J308</f>
+        <v>0</v>
+      </c>
+      <c r="K304" s="18"/>
+      <c r="L304" s="35">
+        <f>IF('Daily Data'!G308&lt;0.25, 0, 'Daily Data'!G308)</f>
+        <v>0</v>
+      </c>
+      <c r="M304" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N304" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O304" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P304" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q304" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B305" s="24">
+        <v>45153</v>
+      </c>
+      <c r="C305" s="18" t="str">
+        <f>IF(OR('Daily Data'!D309 = "Tuesday", 'Daily Data'!D309 = "Wednesday", 'Daily Data'!D309 = "Thursday", 'Daily Data'!D309 = "Friday"), "Weekday", 'Daily Data'!D309)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D305" s="18"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="44"/>
+      <c r="H305" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I305" s="29">
+        <f>'Daily Data'!E309</f>
+        <v>0</v>
+      </c>
+      <c r="J305" s="29">
+        <f>'Daily Data'!J309</f>
+        <v>0</v>
+      </c>
+      <c r="K305" s="18"/>
+      <c r="L305" s="35">
+        <f>IF('Daily Data'!G309&lt;0.25, 0, 'Daily Data'!G309)</f>
+        <v>0</v>
+      </c>
+      <c r="M305" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N305" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O305" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P305" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q305" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B306" s="24">
+        <v>45154</v>
+      </c>
+      <c r="C306" s="18" t="str">
+        <f>IF(OR('Daily Data'!D310 = "Tuesday", 'Daily Data'!D310 = "Wednesday", 'Daily Data'!D310 = "Thursday", 'Daily Data'!D310 = "Friday"), "Weekday", 'Daily Data'!D310)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D306" s="18"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="44"/>
+      <c r="H306" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I306" s="29">
+        <f>'Daily Data'!E310</f>
+        <v>0</v>
+      </c>
+      <c r="J306" s="29">
+        <f>'Daily Data'!J310</f>
+        <v>0</v>
+      </c>
+      <c r="K306" s="18"/>
+      <c r="L306" s="35">
+        <f>IF('Daily Data'!G310&lt;0.25, 0, 'Daily Data'!G310)</f>
+        <v>0</v>
+      </c>
+      <c r="M306" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N306" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O306" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P306" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q306" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B307" s="24">
+        <v>45155</v>
+      </c>
+      <c r="C307" s="18" t="str">
+        <f>IF(OR('Daily Data'!D311 = "Tuesday", 'Daily Data'!D311 = "Wednesday", 'Daily Data'!D311 = "Thursday", 'Daily Data'!D311 = "Friday"), "Weekday", 'Daily Data'!D311)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D307" s="18"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="44"/>
+      <c r="H307" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I307" s="29">
+        <f>'Daily Data'!E311</f>
+        <v>0</v>
+      </c>
+      <c r="J307" s="29">
+        <f>'Daily Data'!J311</f>
+        <v>0</v>
+      </c>
+      <c r="K307" s="18"/>
+      <c r="L307" s="35">
+        <f>IF('Daily Data'!G311&lt;0.25, 0, 'Daily Data'!G311)</f>
+        <v>0</v>
+      </c>
+      <c r="M307" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N307" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O307" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P307" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q307" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B308" s="24">
+        <v>45156</v>
+      </c>
+      <c r="C308" s="18" t="str">
+        <f>IF(OR('Daily Data'!D312 = "Tuesday", 'Daily Data'!D312 = "Wednesday", 'Daily Data'!D312 = "Thursday", 'Daily Data'!D312 = "Friday"), "Weekday", 'Daily Data'!D312)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D308" s="18"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="44"/>
+      <c r="H308" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I308" s="29">
+        <f>'Daily Data'!E312</f>
+        <v>0</v>
+      </c>
+      <c r="J308" s="29">
+        <f>'Daily Data'!J312</f>
+        <v>0</v>
+      </c>
+      <c r="K308" s="18"/>
+      <c r="L308" s="35">
+        <f>IF('Daily Data'!G312&lt;0.25, 0, 'Daily Data'!G312)</f>
+        <v>0</v>
+      </c>
+      <c r="M308" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N308" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O308" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P308" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q308" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B309" s="24">
+        <v>45157</v>
+      </c>
+      <c r="C309" s="18" t="str">
+        <f>IF(OR('Daily Data'!D313 = "Tuesday", 'Daily Data'!D313 = "Wednesday", 'Daily Data'!D313 = "Thursday", 'Daily Data'!D313 = "Friday"), "Weekday", 'Daily Data'!D313)</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D309" s="18"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="44"/>
+      <c r="H309" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I309" s="29">
+        <f>'Daily Data'!E313</f>
+        <v>0</v>
+      </c>
+      <c r="J309" s="29">
+        <f>'Daily Data'!J313</f>
+        <v>0</v>
+      </c>
+      <c r="K309" s="18"/>
+      <c r="L309" s="35">
+        <f>IF('Daily Data'!G313&lt;0.25, 0, 'Daily Data'!G313)</f>
+        <v>0</v>
+      </c>
+      <c r="M309" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N309" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O309" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P309" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q309" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B310" s="24">
+        <v>45158</v>
+      </c>
+      <c r="C310" s="18" t="str">
+        <f>IF(OR('Daily Data'!D314 = "Tuesday", 'Daily Data'!D314 = "Wednesday", 'Daily Data'!D314 = "Thursday", 'Daily Data'!D314 = "Friday"), "Weekday", 'Daily Data'!D314)</f>
+        <v>Sunday</v>
+      </c>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="44"/>
+      <c r="H310" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I310" s="29">
+        <f>'Daily Data'!E314</f>
+        <v>0</v>
+      </c>
+      <c r="J310" s="29">
+        <f>'Daily Data'!J314</f>
+        <v>0</v>
+      </c>
+      <c r="K310" s="18"/>
+      <c r="L310" s="35">
+        <f>IF('Daily Data'!G314&lt;0.25, 0, 'Daily Data'!G314)</f>
+        <v>0</v>
+      </c>
+      <c r="M310" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N310" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O310" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P310" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q310" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B311" s="24">
+        <v>45159</v>
+      </c>
+      <c r="C311" s="18" t="str">
+        <f>IF(OR('Daily Data'!D315 = "Tuesday", 'Daily Data'!D315 = "Wednesday", 'Daily Data'!D315 = "Thursday", 'Daily Data'!D315 = "Friday"), "Weekday", 'Daily Data'!D315)</f>
+        <v>Monday</v>
+      </c>
+      <c r="D311" s="18"/>
+      <c r="E311" s="18"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="44"/>
+      <c r="H311" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I311" s="29">
+        <f>'Daily Data'!E315</f>
+        <v>0</v>
+      </c>
+      <c r="J311" s="29">
+        <f>'Daily Data'!J315</f>
+        <v>0</v>
+      </c>
+      <c r="K311" s="18"/>
+      <c r="L311" s="35">
+        <f>IF('Daily Data'!G315&lt;0.25, 0, 'Daily Data'!G315)</f>
+        <v>0</v>
+      </c>
+      <c r="M311" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N311" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O311" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P311" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q311" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B312" s="24">
+        <v>45160</v>
+      </c>
+      <c r="C312" s="18" t="str">
+        <f>IF(OR('Daily Data'!D316 = "Tuesday", 'Daily Data'!D316 = "Wednesday", 'Daily Data'!D316 = "Thursday", 'Daily Data'!D316 = "Friday"), "Weekday", 'Daily Data'!D316)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D312" s="18"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="44"/>
+      <c r="H312" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I312" s="29">
+        <f>'Daily Data'!E316</f>
+        <v>0</v>
+      </c>
+      <c r="J312" s="29">
+        <f>'Daily Data'!J316</f>
+        <v>0</v>
+      </c>
+      <c r="K312" s="18"/>
+      <c r="L312" s="35">
+        <f>IF('Daily Data'!G316&lt;0.25, 0, 'Daily Data'!G316)</f>
+        <v>0</v>
+      </c>
+      <c r="M312" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N312" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O312" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P312" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q312" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B313" s="24">
+        <v>45161</v>
+      </c>
+      <c r="C313" s="18" t="str">
+        <f>IF(OR('Daily Data'!D317 = "Tuesday", 'Daily Data'!D317 = "Wednesday", 'Daily Data'!D317 = "Thursday", 'Daily Data'!D317 = "Friday"), "Weekday", 'Daily Data'!D317)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D313" s="18"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="44"/>
+      <c r="H313" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I313" s="29">
+        <f>'Daily Data'!E317</f>
+        <v>0</v>
+      </c>
+      <c r="J313" s="29">
+        <f>'Daily Data'!J317</f>
+        <v>0</v>
+      </c>
+      <c r="K313" s="18"/>
+      <c r="L313" s="35">
+        <f>IF('Daily Data'!G317&lt;0.25, 0, 'Daily Data'!G317)</f>
+        <v>0</v>
+      </c>
+      <c r="M313" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N313" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O313" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P313" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q313" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B314" s="24">
+        <v>45162</v>
+      </c>
+      <c r="C314" s="18" t="str">
+        <f>IF(OR('Daily Data'!D318 = "Tuesday", 'Daily Data'!D318 = "Wednesday", 'Daily Data'!D318 = "Thursday", 'Daily Data'!D318 = "Friday"), "Weekday", 'Daily Data'!D318)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D314" s="18"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="44"/>
+      <c r="H314" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I314" s="29">
+        <f>'Daily Data'!E318</f>
+        <v>0</v>
+      </c>
+      <c r="J314" s="29">
+        <f>'Daily Data'!J318</f>
+        <v>0</v>
+      </c>
+      <c r="K314" s="18"/>
+      <c r="L314" s="35">
+        <f>IF('Daily Data'!G318&lt;0.25, 0, 'Daily Data'!G318)</f>
+        <v>0</v>
+      </c>
+      <c r="M314" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N314" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O314" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P314" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q314" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B315" s="24">
+        <v>45163</v>
+      </c>
+      <c r="C315" s="18" t="str">
+        <f>IF(OR('Daily Data'!D319 = "Tuesday", 'Daily Data'!D319 = "Wednesday", 'Daily Data'!D319 = "Thursday", 'Daily Data'!D319 = "Friday"), "Weekday", 'Daily Data'!D319)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D315" s="18"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="44"/>
+      <c r="H315" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I315" s="29">
+        <f>'Daily Data'!E319</f>
+        <v>0</v>
+      </c>
+      <c r="J315" s="29">
+        <f>'Daily Data'!J319</f>
+        <v>0</v>
+      </c>
+      <c r="K315" s="18"/>
+      <c r="L315" s="35">
+        <f>IF('Daily Data'!G319&lt;0.25, 0, 'Daily Data'!G319)</f>
+        <v>0</v>
+      </c>
+      <c r="M315" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N315" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O315" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P315" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q315" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B316" s="24">
+        <v>45164</v>
+      </c>
+      <c r="C316" s="18" t="str">
+        <f>IF(OR('Daily Data'!D320 = "Tuesday", 'Daily Data'!D320 = "Wednesday", 'Daily Data'!D320 = "Thursday", 'Daily Data'!D320 = "Friday"), "Weekday", 'Daily Data'!D320)</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="44"/>
+      <c r="H316" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I316" s="29">
+        <f>'Daily Data'!E320</f>
+        <v>0</v>
+      </c>
+      <c r="J316" s="29">
+        <f>'Daily Data'!J320</f>
+        <v>0</v>
+      </c>
+      <c r="K316" s="18"/>
+      <c r="L316" s="35">
+        <f>IF('Daily Data'!G320&lt;0.25, 0, 'Daily Data'!G320)</f>
+        <v>0</v>
+      </c>
+      <c r="M316" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N316" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O316" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P316" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q316" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B317" s="24">
+        <v>45165</v>
+      </c>
+      <c r="C317" s="18" t="str">
+        <f>IF(OR('Daily Data'!D321 = "Tuesday", 'Daily Data'!D321 = "Wednesday", 'Daily Data'!D321 = "Thursday", 'Daily Data'!D321 = "Friday"), "Weekday", 'Daily Data'!D321)</f>
+        <v>Sunday</v>
+      </c>
+      <c r="D317" s="18"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="44"/>
+      <c r="H317" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I317" s="29">
+        <f>'Daily Data'!E321</f>
+        <v>0</v>
+      </c>
+      <c r="J317" s="29">
+        <f>'Daily Data'!J321</f>
+        <v>0</v>
+      </c>
+      <c r="K317" s="18"/>
+      <c r="L317" s="35">
+        <f>IF('Daily Data'!G321&lt;0.25, 0, 'Daily Data'!G321)</f>
+        <v>0</v>
+      </c>
+      <c r="M317" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N317" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O317" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P317" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q317" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B318" s="24">
+        <v>45166</v>
+      </c>
+      <c r="C318" s="18" t="str">
+        <f>IF(OR('Daily Data'!D322 = "Tuesday", 'Daily Data'!D322 = "Wednesday", 'Daily Data'!D322 = "Thursday", 'Daily Data'!D322 = "Friday"), "Weekday", 'Daily Data'!D322)</f>
+        <v>Monday</v>
+      </c>
+      <c r="D318" s="18"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="44"/>
+      <c r="H318" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I318" s="29">
+        <f>'Daily Data'!E322</f>
+        <v>0</v>
+      </c>
+      <c r="J318" s="29">
+        <f>'Daily Data'!J322</f>
+        <v>0</v>
+      </c>
+      <c r="K318" s="18"/>
+      <c r="L318" s="35">
+        <f>IF('Daily Data'!G322&lt;0.25, 0, 'Daily Data'!G322)</f>
+        <v>0</v>
+      </c>
+      <c r="M318" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N318" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O318" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P318" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q318" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B319" s="24">
+        <v>45167</v>
+      </c>
+      <c r="C319" s="18" t="str">
+        <f>IF(OR('Daily Data'!D323 = "Tuesday", 'Daily Data'!D323 = "Wednesday", 'Daily Data'!D323 = "Thursday", 'Daily Data'!D323 = "Friday"), "Weekday", 'Daily Data'!D323)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D319" s="18"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="44"/>
+      <c r="H319" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I319" s="29">
+        <f>'Daily Data'!E323</f>
+        <v>0</v>
+      </c>
+      <c r="J319" s="29">
+        <f>'Daily Data'!J323</f>
+        <v>0</v>
+      </c>
+      <c r="K319" s="18"/>
+      <c r="L319" s="35">
+        <f>IF('Daily Data'!G323&lt;0.25, 0, 'Daily Data'!G323)</f>
+        <v>0</v>
+      </c>
+      <c r="M319" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N319" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O319" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P319" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q319" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B320" s="24">
+        <v>45168</v>
+      </c>
+      <c r="C320" s="18" t="str">
+        <f>IF(OR('Daily Data'!D324 = "Tuesday", 'Daily Data'!D324 = "Wednesday", 'Daily Data'!D324 = "Thursday", 'Daily Data'!D324 = "Friday"), "Weekday", 'Daily Data'!D324)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D320" s="18"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="44"/>
+      <c r="H320" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I320" s="29">
+        <f>'Daily Data'!E324</f>
+        <v>0</v>
+      </c>
+      <c r="J320" s="29">
+        <f>'Daily Data'!J324</f>
+        <v>0</v>
+      </c>
+      <c r="K320" s="18"/>
+      <c r="L320" s="35">
+        <f>IF('Daily Data'!G324&lt;0.25, 0, 'Daily Data'!G324)</f>
+        <v>0</v>
+      </c>
+      <c r="M320" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N320" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O320" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P320" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q320" s="28">
+        <f t="shared" si="71"/>
+        <v>2.5343999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B321" s="24">
+        <v>45169</v>
+      </c>
+      <c r="C321" s="18" t="str">
+        <f>IF(OR('Daily Data'!D325 = "Tuesday", 'Daily Data'!D325 = "Wednesday", 'Daily Data'!D325 = "Thursday", 'Daily Data'!D325 = "Friday"), "Weekday", 'Daily Data'!D325)</f>
+        <v>Weekday</v>
+      </c>
+      <c r="D321" s="18"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="44"/>
+      <c r="H321" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I321" s="29">
+        <f>'Daily Data'!E325</f>
+        <v>0</v>
+      </c>
+      <c r="J321" s="29">
+        <f>'Daily Data'!J325</f>
+        <v>0</v>
+      </c>
+      <c r="K321" s="18"/>
+      <c r="L321" s="35">
+        <f>IF('Daily Data'!G325&lt;0.25, 0, 'Daily Data'!G325)</f>
+        <v>0</v>
+      </c>
+      <c r="M321" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N321" s="26">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="O321" s="27">
+        <f t="shared" si="69"/>
+        <v>200</v>
+      </c>
+      <c r="P321" s="27">
+        <f t="shared" si="70"/>
+        <v>100</v>
+      </c>
+      <c r="Q321" s="28">
+        <f t="shared" si="71"/>
         <v>2.5343999999999998</v>
       </c>
     </row>
@@ -44830,8 +47090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1828F7D6-3A97-409C-B650-64BEEA44D2BF}">
   <dimension ref="A1:F433"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F291" sqref="A1:F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44839,8 +47099,8 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -52098,23 +54358,23 @@
       </c>
       <c r="B280">
         <f>Weather!D282</f>
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="C280">
         <f>Weather!E282</f>
-        <v>0</v>
+        <v>82.3</v>
       </c>
       <c r="D280">
         <f>Weather!F282</f>
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="E280">
         <f>Weather!H282</f>
-        <v>0</v>
+        <v>0.88466435185185188</v>
       </c>
       <c r="F280">
         <f>Weather!P282</f>
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -52124,23 +54384,23 @@
       </c>
       <c r="B281">
         <f>Weather!D283</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C281">
         <f>Weather!E283</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D281">
         <f>Weather!F283</f>
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="E281">
         <f>Weather!H283</f>
-        <v>0</v>
+        <v>0.88366898148148154</v>
       </c>
       <c r="F281">
         <f>Weather!P283</f>
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -52150,23 +54410,23 @@
       </c>
       <c r="B282">
         <f>Weather!D284</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="C282">
         <f>Weather!E284</f>
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="D282">
         <f>Weather!F284</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="E282">
         <f>Weather!H284</f>
-        <v>0</v>
+        <v>0.88265046296296301</v>
       </c>
       <c r="F282">
         <f>Weather!P284</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -52176,23 +54436,23 @@
       </c>
       <c r="B283">
         <f>Weather!D285</f>
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="C283">
         <f>Weather!E285</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="D283">
         <f>Weather!F285</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E283">
         <f>Weather!H285</f>
-        <v>0</v>
+        <v>0.88160879629629629</v>
       </c>
       <c r="F283">
         <f>Weather!P285</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -52202,23 +54462,23 @@
       </c>
       <c r="B284">
         <f>Weather!D286</f>
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="C284">
         <f>Weather!E286</f>
-        <v>0</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D284">
         <f>Weather!F286</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E284">
         <f>Weather!H286</f>
-        <v>0</v>
+        <v>0.88053240740740746</v>
       </c>
       <c r="F284">
         <f>Weather!P286</f>
-        <v>100</v>
+        <v>18.09375</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -52228,23 +54488,23 @@
       </c>
       <c r="B285">
         <f>Weather!D287</f>
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C285">
         <f>Weather!E287</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D285">
         <f>Weather!F287</f>
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="E285">
         <f>Weather!H287</f>
-        <v>0</v>
+        <v>0.87943287037037043</v>
       </c>
       <c r="F285">
         <f>Weather!P287</f>
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -52254,23 +54514,23 @@
       </c>
       <c r="B286">
         <f>Weather!D288</f>
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C286">
         <f>Weather!E288</f>
-        <v>0</v>
+        <v>59.6</v>
       </c>
       <c r="D286">
         <f>Weather!F288</f>
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="E286">
         <f>Weather!H288</f>
-        <v>0</v>
+        <v>0.87832175925925926</v>
       </c>
       <c r="F286">
         <f>Weather!P288</f>
-        <v>100</v>
+        <v>18.09375</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -52280,55 +54540,55 @@
       </c>
       <c r="B287">
         <f>Weather!D289</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C287">
         <f>Weather!E289</f>
-        <v>0</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D287">
         <f>Weather!F289</f>
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="E287">
         <f>Weather!H289</f>
-        <v>0</v>
+        <v>0.87717592592592597</v>
       </c>
       <c r="F287">
         <f>Weather!P289</f>
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288">
+      <c r="A288" t="str">
         <f>Weather!C290</f>
-        <v>0</v>
+        <v>Monday</v>
       </c>
       <c r="B288">
         <f>Weather!D290</f>
-        <v>0</v>
+        <v>70.83</v>
       </c>
       <c r="C288">
         <f>Weather!E290</f>
-        <v>0</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D288">
         <f>Weather!F290</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E288">
         <f>Weather!H290</f>
-        <v>0</v>
+        <v>0.87600694444444438</v>
       </c>
       <c r="F288">
         <f>Weather!P290</f>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289">
+      <c r="A289" t="str">
         <f>Weather!C291</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B289">
         <f>Weather!D291</f>
@@ -52336,77 +54596,77 @@
       </c>
       <c r="C289">
         <f>Weather!E291</f>
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="D289">
         <f>Weather!F291</f>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="E289">
         <f>Weather!H291</f>
-        <v>0</v>
+        <v>0.87481481481481482</v>
       </c>
       <c r="F289">
         <f>Weather!P291</f>
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290">
+      <c r="A290" t="str">
         <f>Weather!C292</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B290">
         <f>Weather!D292</f>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="C290">
         <f>Weather!E292</f>
-        <v>0</v>
+        <v>75.7</v>
       </c>
       <c r="D290">
         <f>Weather!F292</f>
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="E290">
         <f>Weather!H292</f>
-        <v>0</v>
+        <v>0.87361111111111101</v>
       </c>
       <c r="F290">
         <f>Weather!P292</f>
-        <v>100</v>
+        <v>19.4921875</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291">
+      <c r="A291" t="str">
         <f>Weather!C293</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B291">
         <f>Weather!D293</f>
-        <v>0</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C291">
         <f>Weather!E293</f>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="D291">
         <f>Weather!F293</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E291">
         <f>Weather!H293</f>
-        <v>0</v>
+        <v>0.87237268518518529</v>
       </c>
       <c r="F291">
         <f>Weather!P293</f>
-        <v>100</v>
+        <v>15.1640625</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292">
+      <c r="A292" t="str">
         <f>Weather!C294</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B292">
         <f>Weather!D294</f>
@@ -52426,13 +54686,13 @@
       </c>
       <c r="F292">
         <f>Weather!P294</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293">
+      <c r="A293" t="str">
         <f>Weather!C295</f>
-        <v>0</v>
+        <v>Saturday</v>
       </c>
       <c r="B293">
         <f>Weather!D295</f>
@@ -52452,13 +54712,13 @@
       </c>
       <c r="F293">
         <f>Weather!P295</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294">
+      <c r="A294" t="str">
         <f>Weather!C296</f>
-        <v>0</v>
+        <v>Sunday</v>
       </c>
       <c r="B294">
         <f>Weather!D296</f>
@@ -52478,13 +54738,13 @@
       </c>
       <c r="F294">
         <f>Weather!P296</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295">
+      <c r="A295" t="str">
         <f>Weather!C297</f>
-        <v>0</v>
+        <v>Monday</v>
       </c>
       <c r="B295">
         <f>Weather!D297</f>
@@ -52504,13 +54764,13 @@
       </c>
       <c r="F295">
         <f>Weather!P297</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296">
+      <c r="A296" t="str">
         <f>Weather!C298</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B296">
         <f>Weather!D298</f>
@@ -52530,13 +54790,13 @@
       </c>
       <c r="F296">
         <f>Weather!P298</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297">
+      <c r="A297" t="str">
         <f>Weather!C299</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B297">
         <f>Weather!D299</f>
@@ -52556,13 +54816,13 @@
       </c>
       <c r="F297">
         <f>Weather!P299</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298">
+      <c r="A298" t="str">
         <f>Weather!C300</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B298">
         <f>Weather!D300</f>
@@ -52582,13 +54842,13 @@
       </c>
       <c r="F298">
         <f>Weather!P300</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299">
+      <c r="A299" t="str">
         <f>Weather!C301</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B299">
         <f>Weather!D301</f>
@@ -52608,13 +54868,13 @@
       </c>
       <c r="F299">
         <f>Weather!P301</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300">
+      <c r="A300" t="str">
         <f>Weather!C302</f>
-        <v>0</v>
+        <v>Saturday</v>
       </c>
       <c r="B300">
         <f>Weather!D302</f>
@@ -52634,13 +54894,13 @@
       </c>
       <c r="F300">
         <f>Weather!P302</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301">
+      <c r="A301" t="str">
         <f>Weather!C303</f>
-        <v>0</v>
+        <v>Sunday</v>
       </c>
       <c r="B301">
         <f>Weather!D303</f>
@@ -52660,13 +54920,13 @@
       </c>
       <c r="F301">
         <f>Weather!P303</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302">
+      <c r="A302" t="str">
         <f>Weather!C304</f>
-        <v>0</v>
+        <v>Monday</v>
       </c>
       <c r="B302">
         <f>Weather!D304</f>
@@ -52686,13 +54946,13 @@
       </c>
       <c r="F302">
         <f>Weather!P304</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303">
+      <c r="A303" t="str">
         <f>Weather!C305</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B303">
         <f>Weather!D305</f>
@@ -52712,13 +54972,13 @@
       </c>
       <c r="F303">
         <f>Weather!P305</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304">
+      <c r="A304" t="str">
         <f>Weather!C306</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B304">
         <f>Weather!D306</f>
@@ -52738,13 +54998,13 @@
       </c>
       <c r="F304">
         <f>Weather!P306</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305">
+      <c r="A305" t="str">
         <f>Weather!C307</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B305">
         <f>Weather!D307</f>
@@ -52764,13 +55024,13 @@
       </c>
       <c r="F305">
         <f>Weather!P307</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306">
+      <c r="A306" t="str">
         <f>Weather!C308</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B306">
         <f>Weather!D308</f>
@@ -52790,13 +55050,13 @@
       </c>
       <c r="F306">
         <f>Weather!P308</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307">
+      <c r="A307" t="str">
         <f>Weather!C309</f>
-        <v>0</v>
+        <v>Saturday</v>
       </c>
       <c r="B307">
         <f>Weather!D309</f>
@@ -52816,13 +55076,13 @@
       </c>
       <c r="F307">
         <f>Weather!P309</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308">
+      <c r="A308" t="str">
         <f>Weather!C310</f>
-        <v>0</v>
+        <v>Sunday</v>
       </c>
       <c r="B308">
         <f>Weather!D310</f>
@@ -52842,13 +55102,13 @@
       </c>
       <c r="F308">
         <f>Weather!P310</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309">
+      <c r="A309" t="str">
         <f>Weather!C311</f>
-        <v>0</v>
+        <v>Monday</v>
       </c>
       <c r="B309">
         <f>Weather!D311</f>
@@ -52868,13 +55128,13 @@
       </c>
       <c r="F309">
         <f>Weather!P311</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310">
+      <c r="A310" t="str">
         <f>Weather!C312</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B310">
         <f>Weather!D312</f>
@@ -52894,13 +55154,13 @@
       </c>
       <c r="F310">
         <f>Weather!P312</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311">
+      <c r="A311" t="str">
         <f>Weather!C313</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B311">
         <f>Weather!D313</f>
@@ -52920,13 +55180,13 @@
       </c>
       <c r="F311">
         <f>Weather!P313</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312">
+      <c r="A312" t="str">
         <f>Weather!C314</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B312">
         <f>Weather!D314</f>
@@ -52946,13 +55206,13 @@
       </c>
       <c r="F312">
         <f>Weather!P314</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313">
+      <c r="A313" t="str">
         <f>Weather!C315</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B313">
         <f>Weather!D315</f>
@@ -52972,13 +55232,13 @@
       </c>
       <c r="F313">
         <f>Weather!P315</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314">
+      <c r="A314" t="str">
         <f>Weather!C316</f>
-        <v>0</v>
+        <v>Saturday</v>
       </c>
       <c r="B314">
         <f>Weather!D316</f>
@@ -52998,13 +55258,13 @@
       </c>
       <c r="F314">
         <f>Weather!P316</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315">
+      <c r="A315" t="str">
         <f>Weather!C317</f>
-        <v>0</v>
+        <v>Sunday</v>
       </c>
       <c r="B315">
         <f>Weather!D317</f>
@@ -53024,13 +55284,13 @@
       </c>
       <c r="F315">
         <f>Weather!P317</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316">
+      <c r="A316" t="str">
         <f>Weather!C318</f>
-        <v>0</v>
+        <v>Monday</v>
       </c>
       <c r="B316">
         <f>Weather!D318</f>
@@ -53050,13 +55310,13 @@
       </c>
       <c r="F316">
         <f>Weather!P318</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317">
+      <c r="A317" t="str">
         <f>Weather!C319</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B317">
         <f>Weather!D319</f>
@@ -53076,13 +55336,13 @@
       </c>
       <c r="F317">
         <f>Weather!P319</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318">
+      <c r="A318" t="str">
         <f>Weather!C320</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B318">
         <f>Weather!D320</f>
@@ -53102,13 +55362,13 @@
       </c>
       <c r="F318">
         <f>Weather!P320</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319">
+      <c r="A319" t="str">
         <f>Weather!C321</f>
-        <v>0</v>
+        <v>Weekday</v>
       </c>
       <c r="B319">
         <f>Weather!D321</f>
@@ -53128,7 +55388,7 @@
       </c>
       <c r="F319">
         <f>Weather!P321</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -57420,19 +59680,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17773C91-396F-4383-9384-565656DD87B6}">
-  <dimension ref="D94"/>
+  <dimension ref="C81:G94"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <f>-C83*(C81^4)</f>
+        <v>24.9942455246</v>
+      </c>
+      <c r="D82">
+        <f>D83*(C81^3)</f>
+        <v>140.98082438</v>
+      </c>
+      <c r="E82">
+        <f>C81*(E83^2)</f>
+        <v>31.755240000000004</v>
+      </c>
+      <c r="F82">
+        <f>F83*C81</f>
+        <v>64.250999999999991</v>
+      </c>
+      <c r="G82">
+        <v>96.65</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>-1.1659999999999999E-3</v>
+      </c>
+      <c r="D83">
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="E83">
+        <v>-1.62</v>
+      </c>
+      <c r="F83">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f>SUM(C82:G82)</f>
+        <v>358.63130990460002</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.35">
       <c r="D94" s="16"/>
     </row>
   </sheetData>
